--- a/r5-ELGA-MOPED-48-account-extension-coverage-eligibility-request/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-48-account-extension-coverage-eligibility-request/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T08:17:16+00:00</t>
+    <t>2024-09-26T08:30:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -554,10 +554,10 @@
     <t>Anzahl der Tage, für welche kein Kostenbeitrag seitens der Krankenanstalt eingehoben wurde</t>
   </si>
   <si>
-    <t>Account.extension:CoverageEligibilityRequest</t>
-  </si>
-  <si>
-    <t>CoverageEligibilityRequest</t>
+    <t>Account.extension:CoverageEligibilityRequestRef</t>
+  </si>
+  <si>
+    <t>CoverageEligibilityRequestRef</t>
   </si>
   <si>
     <t xml:space="preserve">Extension {http://example.org/StructureDefinition/moped-ext-CoverageEligibilityRequestRef}

--- a/r5-ELGA-MOPED-48-account-extension-coverage-eligibility-request/StructureDefinition-MOPEDAccount.xlsx
+++ b/r5-ELGA-MOPED-48-account-extension-coverage-eligibility-request/StructureDefinition-MOPEDAccount.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-26T08:30:44+00:00</t>
+    <t>2024-09-26T08:39:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
